--- a/data/blood_pressure-test1.xlsx
+++ b/data/blood_pressure-test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangjiabao/GitHub/iMac/Pycharm/Person/24h动态血压/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangjiabao/GitHub/Github_Repo/24h/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BEBFD-794D-F341-A53E-78A05B0AE9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D11EF5-2D10-DA43-9807-581C998256A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t>日期</t>
   </si>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="226" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1539,6 +1539,26 @@
         <v>42</v>
       </c>
     </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2">
+        <v>59</v>
+      </c>
+      <c r="D42" s="2">
+        <v>30</v>
+      </c>
+      <c r="E42" s="2">
+        <v>88</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
